--- a/tests/template/cortex_xlsx_data/05-example.in/input.xlsx
+++ b/tests/template/cortex_xlsx_data/05-example.in/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagler/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D232D9B3-2EFC-3F41-941C-F74A4BBF510C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA94D73-52C0-EA4B-8CA2-4C1604660491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,9 +216,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000%"/>
-  </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -342,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -384,30 +381,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -483,9 +456,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -497,13 +467,22 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -511,14 +490,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,7 +714,7 @@
   <dimension ref="A1:O1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:G31"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -762,35 +733,35 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -801,52 +772,55 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>38</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
       </c>
       <c r="L11" s="7"/>
     </row>
@@ -854,111 +828,111 @@
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="28">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="B12" s="23">
+        <v>0.11</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="31">
-        <v>0.09</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="B13" s="23">
+        <v>9</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="31">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="B14" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="31">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="B15" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31">
-        <v>1.5E-3</v>
-      </c>
-      <c r="D16" s="32">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="D16" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="31">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="B17" s="23">
+        <v>0.12</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="31">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="B18" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="31">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="B19" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
       <c r="L19" s="10"/>
       <c r="O19" s="5"/>
     </row>
@@ -966,173 +940,173 @@
       <c r="A20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="31">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
+      <c r="B20" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="31">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
+      <c r="B21" s="23">
+        <v>2E-3</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="31">
-        <v>1E-4</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="B22" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23">
         <v>0</v>
       </c>
-      <c r="D24" s="32">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
+      <c r="D24" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23">
         <v>0</v>
       </c>
-      <c r="D25" s="32">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
+      <c r="D25" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23">
         <v>0</v>
       </c>
-      <c r="D26" s="32">
-        <v>1E-4</v>
-      </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="D26" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23">
         <v>0</v>
       </c>
-      <c r="D27" s="32">
-        <v>1E-4</v>
-      </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="D27" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23">
         <v>0</v>
       </c>
-      <c r="D28" s="32">
-        <v>1E-4</v>
-      </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
+      <c r="D28" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23">
         <v>0</v>
       </c>
-      <c r="D29" s="32">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
+      <c r="D29" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23">
         <v>0</v>
       </c>
-      <c r="D30" s="32">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
+      <c r="D30" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23">
         <v>0</v>
       </c>
-      <c r="D31" s="32">
-        <v>1E-4</v>
-      </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
+      <c r="D31" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2121,7 +2095,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2148,7 +2122,7 @@
       <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2166,7 +2140,7 @@
       <c r="C5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2178,20 +2152,20 @@
       <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="13">
-        <v>0.25</v>
+      <c r="B7" s="22">
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E10" s="14"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3211,7 +3185,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3235,7 +3209,7 @@
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3257,7 +3231,7 @@
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>52</v>
       </c>
     </row>
